--- a/wedgeautodraw_1_2/wedgeautodraw_1_2/Resources/Templates/CKVD_DATA_10_Parts.xlsx
+++ b/wedgeautodraw_1_2/wedgeautodraw_1_2/Resources/Templates/CKVD_DATA_10_Parts.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28712"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sptrothltd.sharepoint.com/sites/CH-MST-ENA-Autodrw/Shared Documents/General/Outsourcing/CKVD/10 Parts for Stage 1 and 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mounir\Desktop\wedgeautodraw_1_2\wedgeautodraw_1_2\wedgeautodraw_1_2\Resources\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB20F7F7-B315-40CE-9EC8-543B062D0115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF654ED-2236-460D-94E2-D2283E7FF796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -525,7 +514,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -937,11 +926,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CZ1" workbookViewId="0">
-      <selection activeCell="DB19" sqref="DB19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="CV8" sqref="CV8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -1047,7 +1036,7 @@
     <col min="107" max="107" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:107">
+    <row r="1" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1368,7 +1357,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:107">
+    <row r="2" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>3</v>
       </c>
@@ -1593,7 +1582,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:107">
+    <row r="3" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>10</v>
       </c>
@@ -1848,7 +1837,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:107">
+    <row r="4" spans="1:107" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>8</v>
       </c>
@@ -2083,7 +2072,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:107" s="11" customFormat="1">
+    <row r="5" spans="1:107" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>9</v>
       </c>
@@ -2107,7 +2096,7 @@
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5">
-        <v>0.10630000000000001</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="J5" s="5">
         <v>5.0000000000000001E-4</v>
@@ -2304,7 +2293,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:107" s="11" customFormat="1">
+    <row r="6" spans="1:107" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -2523,7 +2512,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:107" s="11" customFormat="1">
+    <row r="7" spans="1:107" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>7</v>
       </c>
@@ -2750,7 +2739,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:107" s="11" customFormat="1">
+    <row r="8" spans="1:107" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -3015,7 +3004,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:107" s="11" customFormat="1">
+    <row r="9" spans="1:107" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -3242,7 +3231,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:107" s="11" customFormat="1">
+    <row r="10" spans="1:107" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -3507,7 +3496,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:107" s="11" customFormat="1">
+    <row r="11" spans="1:107" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -3976,13 +3965,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A4F63B5-1686-4498-BFE5-497EE0DF0537}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A4F63B5-1686-4498-BFE5-497EE0DF0537}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="de1cf861-4600-4865-81a1-6d5ec92f3e6a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9615E88B-117A-4ED9-BAA3-61812C90AAB9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9615E88B-117A-4ED9-BAA3-61812C90AAB9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="de1cf861-4600-4865-81a1-6d5ec92f3e6a"/>
+    <ds:schemaRef ds:uri="85a9a5bd-3c1e-488a-8100-398586daa683"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A724B3-3295-4A58-8567-4ED3DA1DFA3E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A724B3-3295-4A58-8567-4ED3DA1DFA3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>